--- a/NT533.K21.MMCL_Attendance.xlsx
+++ b/NT533.K21.MMCL_Attendance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>TRƯỜNG ĐH CÔNG NGHỆ THÔNG TIN</t>
   </si>
@@ -193,6 +193,33 @@
   </si>
   <si>
     <t>Buổi 1</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>OpenFaaS</t>
+  </si>
+  <si>
+    <t>OpenStack.</t>
+  </si>
+  <si>
+    <t>Buổi 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenNebula </t>
+  </si>
+  <si>
+    <t>Apache CloudStack</t>
+  </si>
+  <si>
+    <t>AppScale</t>
+  </si>
+  <si>
+    <t>Eucalyptus</t>
+  </si>
+  <si>
+    <t>Apache OpenWhisk</t>
   </si>
 </sst>
 </file>
@@ -202,7 +229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0#######"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -258,6 +285,12 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -348,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -415,21 +448,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,6 +465,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,7 +541,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,7 +576,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -752,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -763,17 +798,17 @@
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -783,11 +818,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -805,23 +840,23 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
@@ -831,11 +866,11 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
@@ -845,11 +880,11 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
@@ -881,8 +916,14 @@
       <c r="D9" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>1</v>
       </c>
@@ -894,6 +935,12 @@
       </c>
       <c r="D10" s="21">
         <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -909,6 +956,12 @@
       <c r="D11" s="21">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
@@ -923,6 +976,12 @@
       <c r="D12" s="21">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
@@ -937,6 +996,12 @@
       <c r="D13" s="21">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
@@ -951,6 +1016,12 @@
       <c r="D14" s="21">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
@@ -965,8 +1036,14 @@
       <c r="D15" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -978,6 +1055,12 @@
       </c>
       <c r="D16" s="21">
         <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -993,6 +1076,12 @@
       <c r="D17" s="21">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
@@ -1007,6 +1096,12 @@
       <c r="D18" s="21">
         <v>1</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
@@ -1021,6 +1116,12 @@
       <c r="D19" s="21">
         <v>1</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
@@ -1035,6 +1136,12 @@
       <c r="D20" s="21">
         <v>1</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
@@ -1049,6 +1156,12 @@
       <c r="D21" s="21">
         <v>1</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
@@ -1063,6 +1176,12 @@
       <c r="D22" s="21">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
@@ -1077,6 +1196,12 @@
       <c r="D23" s="21">
         <v>1</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>62</v>
+      </c>
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1092,6 +1217,12 @@
       <c r="D24" s="21">
         <v>1</v>
       </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
@@ -1106,6 +1237,12 @@
       <c r="D25" s="21">
         <v>1</v>
       </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
@@ -1120,6 +1257,12 @@
       <c r="D26" s="21">
         <v>1</v>
       </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
@@ -1134,6 +1277,12 @@
       <c r="D27" s="21">
         <v>1</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
@@ -1148,6 +1297,12 @@
       <c r="D28" s="21">
         <v>1</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
@@ -1162,8 +1317,14 @@
       <c r="D29" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>21</v>
       </c>
@@ -1175,6 +1336,12 @@
       </c>
       <c r="D30" s="21">
         <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1189,6 +1356,12 @@
       </c>
       <c r="D31" s="21">
         <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1201,31 +1374,31 @@
       <c r="A33" s="24"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
@@ -1240,6 +1413,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="D34:E34"/>
@@ -1247,13 +1426,8 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:H35"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.28999999999999998" header="0.25" footer="0.19"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NT533.K21.MMCL_Attendance.xlsx
+++ b/NT533.K21.MMCL_Attendance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>TRƯỜNG ĐH CÔNG NGHỆ THÔNG TIN</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Apache OpenWhisk</t>
+  </si>
+  <si>
+    <t>Buổi 3</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -449,6 +452,32 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,22 +494,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -798,102 +811,110 @@
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="27"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -902,8 +923,9 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
@@ -920,10 +942,13 @@
         <v>61</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>1</v>
       </c>
@@ -939,11 +964,14 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="29">
+        <v>1</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -959,11 +987,14 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -979,11 +1010,14 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="29">
+        <v>1</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -999,11 +1033,14 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="29">
+        <v>1</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -1019,11 +1056,14 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="29">
+        <v>1</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>6</v>
       </c>
@@ -1039,11 +1079,14 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="29">
+        <v>1</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -1059,11 +1102,14 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="29">
+        <v>1</v>
+      </c>
+      <c r="G16" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>8</v>
       </c>
@@ -1079,11 +1125,14 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="29">
+        <v>1</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>9</v>
       </c>
@@ -1099,11 +1148,14 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="29">
+        <v>1</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>10</v>
       </c>
@@ -1119,11 +1171,14 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="29">
+        <v>1</v>
+      </c>
+      <c r="G19" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>11</v>
       </c>
@@ -1139,11 +1194,14 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="29">
+        <v>1</v>
+      </c>
+      <c r="G20" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -1159,11 +1217,14 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="29">
+        <v>1</v>
+      </c>
+      <c r="G21" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>13</v>
       </c>
@@ -1179,11 +1240,14 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="29">
+        <v>1</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>14</v>
       </c>
@@ -1199,12 +1263,15 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="29">
+        <v>1</v>
+      </c>
+      <c r="G23" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>15</v>
       </c>
@@ -1220,11 +1287,14 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="29">
+        <v>1</v>
+      </c>
+      <c r="G24" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>16</v>
       </c>
@@ -1240,11 +1310,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="29">
+        <v>1</v>
+      </c>
+      <c r="G25" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>17</v>
       </c>
@@ -1260,11 +1333,14 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="29">
+        <v>1</v>
+      </c>
+      <c r="G26" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>18</v>
       </c>
@@ -1280,11 +1356,14 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="29">
+        <v>1</v>
+      </c>
+      <c r="G27" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>19</v>
       </c>
@@ -1300,11 +1379,14 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="29">
+        <v>1</v>
+      </c>
+      <c r="G28" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>20</v>
       </c>
@@ -1320,11 +1402,14 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>21</v>
       </c>
@@ -1340,11 +1425,14 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="29">
+        <v>1</v>
+      </c>
+      <c r="G30" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>22</v>
       </c>
@@ -1360,47 +1448,52 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="29">
+        <v>1</v>
+      </c>
+      <c r="G31" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
     </row>
-    <row r="33" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="12"/>
       <c r="C36" s="1"/>
@@ -1409,23 +1502,24 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:I35"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.28999999999999998" header="0.25" footer="0.19"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/NT533.K21.MMCL_Attendance.xlsx
+++ b/NT533.K21.MMCL_Attendance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim Hung LE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19575" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="NT533.K21.MMCL" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>TRƯỜNG ĐH CÔNG NGHỆ THÔNG TIN</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Buổi 3</t>
+  </si>
+  <si>
+    <t>Buổi 4</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -463,6 +466,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -798,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -812,109 +825,117 @@
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="32"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -924,8 +945,9 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
@@ -945,10 +967,13 @@
         <v>67</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>1</v>
       </c>
@@ -967,11 +992,14 @@
       <c r="F10" s="29">
         <v>1</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="36">
+        <v>1</v>
+      </c>
+      <c r="H10" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -990,11 +1018,14 @@
       <c r="F11" s="29">
         <v>1</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="36">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -1013,11 +1044,14 @@
       <c r="F12" s="29">
         <v>1</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="36">
+        <v>1</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -1036,11 +1070,14 @@
       <c r="F13" s="29">
         <v>1</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="36">
+        <v>1</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -1059,11 +1096,14 @@
       <c r="F14" s="29">
         <v>1</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="36">
+        <v>1</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>6</v>
       </c>
@@ -1082,11 +1122,14 @@
       <c r="F15" s="29">
         <v>1</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="36">
+        <v>1</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -1105,11 +1148,14 @@
       <c r="F16" s="29">
         <v>1</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="36">
+        <v>1</v>
+      </c>
+      <c r="H16" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>8</v>
       </c>
@@ -1128,11 +1174,14 @@
       <c r="F17" s="29">
         <v>1</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="36">
+        <v>1</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>9</v>
       </c>
@@ -1151,11 +1200,14 @@
       <c r="F18" s="29">
         <v>1</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="36">
+        <v>0</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>10</v>
       </c>
@@ -1174,11 +1226,14 @@
       <c r="F19" s="29">
         <v>1</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="36">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>11</v>
       </c>
@@ -1197,11 +1252,14 @@
       <c r="F20" s="29">
         <v>1</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="36">
+        <v>1</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -1220,11 +1278,14 @@
       <c r="F21" s="29">
         <v>1</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="36">
+        <v>1</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>13</v>
       </c>
@@ -1243,11 +1304,14 @@
       <c r="F22" s="29">
         <v>1</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="36">
+        <v>1</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>14</v>
       </c>
@@ -1266,12 +1330,15 @@
       <c r="F23" s="29">
         <v>1</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="36">
+        <v>1</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>15</v>
       </c>
@@ -1290,11 +1357,14 @@
       <c r="F24" s="29">
         <v>1</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="36">
+        <v>1</v>
+      </c>
+      <c r="H24" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>16</v>
       </c>
@@ -1313,11 +1383,14 @@
       <c r="F25" s="29">
         <v>1</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="36">
+        <v>1</v>
+      </c>
+      <c r="H25" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>17</v>
       </c>
@@ -1336,11 +1409,14 @@
       <c r="F26" s="29">
         <v>1</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="36">
+        <v>1</v>
+      </c>
+      <c r="H26" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>18</v>
       </c>
@@ -1359,11 +1435,14 @@
       <c r="F27" s="29">
         <v>1</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="36">
+        <v>1</v>
+      </c>
+      <c r="H27" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>19</v>
       </c>
@@ -1382,11 +1461,14 @@
       <c r="F28" s="29">
         <v>1</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="36">
+        <v>1</v>
+      </c>
+      <c r="H28" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>20</v>
       </c>
@@ -1405,11 +1487,14 @@
       <c r="F29" s="29">
         <v>1</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="36">
+        <v>1</v>
+      </c>
+      <c r="H29" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>21</v>
       </c>
@@ -1428,11 +1513,14 @@
       <c r="F30" s="29">
         <v>1</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="36">
+        <v>1</v>
+      </c>
+      <c r="H30" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>22</v>
       </c>
@@ -1451,49 +1539,54 @@
       <c r="F31" s="29">
         <v>1</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="36">
+        <v>1</v>
+      </c>
+      <c r="H31" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
     </row>
-    <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="30"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="37"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="12"/>
       <c r="C36" s="1"/>
@@ -1503,17 +1596,18 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D33:J33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/NT533.K21.MMCL_Attendance.xlsx
+++ b/NT533.K21.MMCL_Attendance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim Hung LE\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19575" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="NT533.K21.MMCL" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>TRƯỜNG ĐH CÔNG NGHỆ THÔNG TIN</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Buổi 4</t>
+  </si>
+  <si>
+    <t>Buổi 5</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -477,19 +480,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,6 +504,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -822,46 +835,49 @@
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="25" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="1.42578125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -869,46 +885,49 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="32"/>
       <c r="G4" s="35"/>
-      <c r="H4" s="27"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="31"/>
       <c r="G5" s="34"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="5"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
@@ -916,15 +935,16 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
@@ -932,10 +952,11 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -946,8 +967,9 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
@@ -970,10 +992,13 @@
         <v>68</v>
       </c>
       <c r="H9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>1</v>
       </c>
@@ -995,11 +1020,14 @@
       <c r="G10" s="36">
         <v>1</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="40">
+        <v>1</v>
+      </c>
+      <c r="I10" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1021,11 +1049,14 @@
       <c r="G11" s="36">
         <v>1</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="40">
+        <v>1</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -1047,11 +1078,14 @@
       <c r="G12" s="36">
         <v>1</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="40">
+        <v>1</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -1073,11 +1107,14 @@
       <c r="G13" s="36">
         <v>1</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="40">
+        <v>1</v>
+      </c>
+      <c r="I13" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -1099,11 +1136,14 @@
       <c r="G14" s="36">
         <v>1</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="40">
+        <v>1</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>6</v>
       </c>
@@ -1125,11 +1165,14 @@
       <c r="G15" s="36">
         <v>1</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="40">
+        <v>1</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -1151,11 +1194,14 @@
       <c r="G16" s="36">
         <v>1</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="40">
+        <v>1</v>
+      </c>
+      <c r="I16" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>8</v>
       </c>
@@ -1177,11 +1223,14 @@
       <c r="G17" s="36">
         <v>1</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="40">
+        <v>1</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>9</v>
       </c>
@@ -1203,11 +1252,14 @@
       <c r="G18" s="36">
         <v>0</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="40">
+        <v>1</v>
+      </c>
+      <c r="I18" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>10</v>
       </c>
@@ -1229,11 +1281,14 @@
       <c r="G19" s="36">
         <v>1</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="40">
+        <v>1</v>
+      </c>
+      <c r="I19" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>11</v>
       </c>
@@ -1255,11 +1310,14 @@
       <c r="G20" s="36">
         <v>1</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="40">
+        <v>1</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -1281,11 +1339,14 @@
       <c r="G21" s="36">
         <v>1</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="40">
+        <v>1</v>
+      </c>
+      <c r="I21" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>13</v>
       </c>
@@ -1307,11 +1368,14 @@
       <c r="G22" s="36">
         <v>1</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="40">
+        <v>1</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>14</v>
       </c>
@@ -1333,12 +1397,15 @@
       <c r="G23" s="36">
         <v>1</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="40">
+        <v>1</v>
+      </c>
+      <c r="I23" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>15</v>
       </c>
@@ -1360,11 +1427,14 @@
       <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="40">
+        <v>1</v>
+      </c>
+      <c r="I24" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>16</v>
       </c>
@@ -1386,11 +1456,14 @@
       <c r="G25" s="36">
         <v>1</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="40">
+        <v>1</v>
+      </c>
+      <c r="I25" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>17</v>
       </c>
@@ -1412,11 +1485,14 @@
       <c r="G26" s="36">
         <v>1</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="40">
+        <v>1</v>
+      </c>
+      <c r="I26" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>18</v>
       </c>
@@ -1438,11 +1514,14 @@
       <c r="G27" s="36">
         <v>1</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="40">
+        <v>1</v>
+      </c>
+      <c r="I27" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>19</v>
       </c>
@@ -1464,11 +1543,14 @@
       <c r="G28" s="36">
         <v>1</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="40">
+        <v>1</v>
+      </c>
+      <c r="I28" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>20</v>
       </c>
@@ -1490,11 +1572,14 @@
       <c r="G29" s="36">
         <v>1</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="40">
+        <v>1</v>
+      </c>
+      <c r="I29" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>21</v>
       </c>
@@ -1516,11 +1601,14 @@
       <c r="G30" s="36">
         <v>1</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="40">
+        <v>1</v>
+      </c>
+      <c r="I30" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>22</v>
       </c>
@@ -1542,51 +1630,56 @@
       <c r="G31" s="36">
         <v>1</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="40">
+        <v>1</v>
+      </c>
+      <c r="I31" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
     </row>
-    <row r="33" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="H34" s="47"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
       <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="30"/>
       <c r="G35" s="37"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="41"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+    </row>
+    <row r="36" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="12"/>
       <c r="C36" s="1"/>
@@ -1597,23 +1690,24 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H35:J35"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A4:E4"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:K35"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.28999999999999998" header="0.25" footer="0.19"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/NT533.K21.MMCL_Attendance.xlsx
+++ b/NT533.K21.MMCL_Attendance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim Hung LE\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim Hung LE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17685" windowHeight="8835"/>
   </bookViews>
   <sheets>
     <sheet name="NT533.K21.MMCL" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>TRƯỜNG ĐH CÔNG NGHỆ THÔNG TIN</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Buổi 5</t>
+  </si>
+  <si>
+    <t>Buổi 6</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0#######"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -299,6 +302,12 @@
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -390,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -489,6 +498,31 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -505,21 +539,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -839,18 +859,19 @@
     <col min="5" max="5" width="2.28515625" customWidth="1"/>
     <col min="6" max="6" width="1.42578125" style="29" customWidth="1"/>
     <col min="7" max="7" width="1.5703125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="40" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -858,26 +879,28 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -886,31 +909,33 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="32"/>
       <c r="G4" s="35"/>
       <c r="H4" s="39"/>
-      <c r="I4" s="27"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
@@ -918,16 +943,17 @@
       <c r="F5" s="31"/>
       <c r="G5" s="34"/>
       <c r="H5" s="38"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
@@ -936,15 +962,16 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
@@ -953,10 +980,11 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -968,8 +996,9 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
@@ -995,10 +1024,13 @@
         <v>69</v>
       </c>
       <c r="I9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>1</v>
       </c>
@@ -1023,11 +1055,14 @@
       <c r="H10" s="40">
         <v>1</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="42">
+        <v>1</v>
+      </c>
+      <c r="J10" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1052,11 +1087,14 @@
       <c r="H11" s="40">
         <v>1</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="42">
+        <v>1</v>
+      </c>
+      <c r="J11" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -1081,11 +1119,14 @@
       <c r="H12" s="40">
         <v>1</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -1110,11 +1151,14 @@
       <c r="H13" s="40">
         <v>1</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="42">
+        <v>1</v>
+      </c>
+      <c r="J13" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -1139,11 +1183,14 @@
       <c r="H14" s="40">
         <v>1</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="42">
+        <v>1</v>
+      </c>
+      <c r="J14" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>6</v>
       </c>
@@ -1168,11 +1215,14 @@
       <c r="H15" s="40">
         <v>1</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="42">
+        <v>1</v>
+      </c>
+      <c r="J15" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -1197,11 +1247,14 @@
       <c r="H16" s="40">
         <v>1</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="42">
+        <v>1</v>
+      </c>
+      <c r="J16" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>8</v>
       </c>
@@ -1226,11 +1279,14 @@
       <c r="H17" s="40">
         <v>1</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="42">
+        <v>1</v>
+      </c>
+      <c r="J17" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>9</v>
       </c>
@@ -1255,11 +1311,14 @@
       <c r="H18" s="40">
         <v>1</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="42">
+        <v>1</v>
+      </c>
+      <c r="J18" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>10</v>
       </c>
@@ -1284,11 +1343,14 @@
       <c r="H19" s="40">
         <v>1</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="42">
+        <v>1</v>
+      </c>
+      <c r="J19" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>11</v>
       </c>
@@ -1313,11 +1375,14 @@
       <c r="H20" s="40">
         <v>1</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="42">
+        <v>1</v>
+      </c>
+      <c r="J20" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -1342,11 +1407,14 @@
       <c r="H21" s="40">
         <v>1</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="42">
+        <v>1</v>
+      </c>
+      <c r="J21" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>13</v>
       </c>
@@ -1371,11 +1439,14 @@
       <c r="H22" s="40">
         <v>1</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="I22" s="42">
+        <v>1</v>
+      </c>
+      <c r="J22" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>14</v>
       </c>
@@ -1400,12 +1471,15 @@
       <c r="H23" s="40">
         <v>1</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="42">
+        <v>1</v>
+      </c>
+      <c r="J23" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>15</v>
       </c>
@@ -1430,11 +1504,14 @@
       <c r="H24" s="40">
         <v>1</v>
       </c>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="42">
+        <v>1</v>
+      </c>
+      <c r="J24" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>16</v>
       </c>
@@ -1459,11 +1536,14 @@
       <c r="H25" s="40">
         <v>1</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="42">
+        <v>1</v>
+      </c>
+      <c r="J25" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>17</v>
       </c>
@@ -1488,11 +1568,14 @@
       <c r="H26" s="40">
         <v>1</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="42">
+        <v>1</v>
+      </c>
+      <c r="J26" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>18</v>
       </c>
@@ -1517,11 +1600,14 @@
       <c r="H27" s="40">
         <v>1</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="42">
+        <v>1</v>
+      </c>
+      <c r="J27" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>19</v>
       </c>
@@ -1546,11 +1632,14 @@
       <c r="H28" s="40">
         <v>1</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="42">
+        <v>1</v>
+      </c>
+      <c r="J28" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>20</v>
       </c>
@@ -1575,11 +1664,14 @@
       <c r="H29" s="40">
         <v>1</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="42">
+        <v>1</v>
+      </c>
+      <c r="J29" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>21</v>
       </c>
@@ -1604,11 +1696,14 @@
       <c r="H30" s="40">
         <v>1</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="I30" s="42">
+        <v>1</v>
+      </c>
+      <c r="J30" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>22</v>
       </c>
@@ -1633,53 +1728,58 @@
       <c r="H31" s="40">
         <v>1</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I31" s="42">
+        <v>1</v>
+      </c>
+      <c r="J31" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
     </row>
-    <row r="33" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
       <c r="F35" s="30"/>
       <c r="G35" s="37"/>
       <c r="H35" s="41"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-    </row>
-    <row r="36" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="43"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+    </row>
+    <row r="36" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="12"/>
       <c r="C36" s="1"/>
@@ -1691,23 +1791,24 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:K35"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.28999999999999998" header="0.25" footer="0.19"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
